--- a/model_specifications/test_parameters_treat.xlsx
+++ b/model_specifications/test_parameters_treat.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brchan\Documents\Github\Lymphoma Model\model_specifications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Brandon\Documents\GitHub\monte_carlo_markov\model_specifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B14C9D-02B0-40B3-9C24-B6CFC1F12F71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="10875" yWindow="1500" windowWidth="17295" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="transitions" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
   <si>
     <t>start_state</t>
   </si>
@@ -117,12 +118,15 @@
   </si>
   <si>
     <t>remission_asct</t>
+  </si>
+  <si>
+    <t>static</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -456,10 +460,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -594,61 +598,73 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="1" max="2" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2">
         <v>300</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="B3" t="s">
+        <v>31</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>0</v>
+      <c r="B4" t="s">
+        <v>31</v>
       </c>
       <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
     </row>
@@ -658,60 +674,72 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="1" max="2" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2">
         <v>0.85</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>0</v>
+      <c r="B4" t="s">
+        <v>31</v>
       </c>
       <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
     </row>
@@ -721,7 +749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -780,7 +808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -863,7 +891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/model_specifications/test_parameters_treat.xlsx
+++ b/model_specifications/test_parameters_treat.xlsx
@@ -1,31 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Brandon\Documents\GitHub\monte_carlo_markov\model_specifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B14C9D-02B0-40B3-9C24-B6CFC1F12F71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C040CC53-8572-46FD-A49E-A9A5DD155ABB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10875" yWindow="1500" windowWidth="17295" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5085" yWindow="1740" windowWidth="21075" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="transitions" sheetId="1" r:id="rId1"/>
     <sheet name="costs" sheetId="2" r:id="rId2"/>
     <sheet name="utilities" sheetId="3" r:id="rId3"/>
     <sheet name="specification" sheetId="4" r:id="rId4"/>
-    <sheet name="condensed_states" sheetId="5" r:id="rId5"/>
-    <sheet name="state_mappings" sheetId="6" r:id="rId6"/>
+    <sheet name="state_mappings" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
   <si>
     <t>start_state</t>
   </si>
@@ -85,39 +84,6 @@
   </si>
   <si>
     <t>name_start_state</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>mapping</t>
-  </si>
-  <si>
-    <t>treatment_bv_low</t>
-  </si>
-  <si>
-    <t>treatment_bv</t>
-  </si>
-  <si>
-    <t>treatment_bv_med</t>
-  </si>
-  <si>
-    <t>treatment_bv_high</t>
-  </si>
-  <si>
-    <t>rest_bv</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>rest_</t>
-  </si>
-  <si>
-    <t>remission_bv</t>
-  </si>
-  <si>
-    <t>remission_asct</t>
   </si>
   <si>
     <t>static</t>
@@ -463,7 +429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -601,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,7 +597,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>300</v>
@@ -645,7 +611,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -659,7 +625,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -706,7 +672,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>0.85</v>
@@ -720,7 +686,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -734,7 +700,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -808,89 +774,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>

--- a/model_specifications/test_parameters_treat.xlsx
+++ b/model_specifications/test_parameters_treat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Brandon\Documents\GitHub\monte_carlo_markov\model_specifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C040CC53-8572-46FD-A49E-A9A5DD155ABB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAE5F01-FD8F-4555-91CA-C03683BAB61D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5085" yWindow="1740" windowWidth="21075" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11895" yWindow="2955" windowWidth="12540" windowHeight="12585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="transitions" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="24">
   <si>
     <t>start_state</t>
   </si>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t>static</t>
+  </si>
+  <si>
+    <t>parameter_3</t>
+  </si>
+  <si>
+    <t>parameter_4</t>
+  </si>
+  <si>
+    <t>notes</t>
   </si>
 </sst>
 </file>
@@ -427,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,11 +447,14 @@
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -458,8 +470,17 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -476,7 +497,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -493,7 +514,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -510,7 +531,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -527,7 +548,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -544,7 +565,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -565,10 +586,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,7 +599,7 @@
     <col min="6" max="6" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -591,8 +612,11 @@
       <c r="D1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -606,7 +630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -620,7 +644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -641,10 +665,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,7 +677,7 @@
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -666,8 +690,11 @@
       <c r="D1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -681,7 +708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -695,7 +722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>

--- a/model_specifications/test_parameters_treat.xlsx
+++ b/model_specifications/test_parameters_treat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Brandon\Documents\GitHub\monte_carlo_markov\model_specifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAE5F01-FD8F-4555-91CA-C03683BAB61D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358BDC4A-5D40-4A32-A938-249587F7AAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11895" yWindow="2955" windowWidth="12540" windowHeight="12585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="1200" windowWidth="15300" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="transitions" sheetId="1" r:id="rId1"/>
@@ -588,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,7 +624,7 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -667,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/model_specifications/test_parameters_treat.xlsx
+++ b/model_specifications/test_parameters_treat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Brandon\Documents\GitHub\monte_carlo_markov\model_specifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358BDC4A-5D40-4A32-A938-249587F7AAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982EEDAA-3AF9-4879-8AC2-7E573E0501BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1200" windowWidth="15300" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="975" yWindow="3000" windowWidth="25185" windowHeight="11940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="transitions" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>start_state</t>
   </si>
@@ -96,13 +96,22 @@
   </si>
   <si>
     <t>notes</t>
+  </si>
+  <si>
+    <t>parameter_5</t>
+  </si>
+  <si>
+    <t>parameter_6</t>
+  </si>
+  <si>
+    <t>parameter_7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,13 +124,40 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -151,11 +187,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,134 +489,180 @@
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="7" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>80</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>10</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>70</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>30</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>1</v>
       </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -588,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,63 +685,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>400</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -668,7 +756,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,63 +766,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0.85</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
